--- a/tests/A02_pixell_test_plan_savings_account.xlsx
+++ b/tests/A02_pixell_test_plan_savings_account.xlsx
@@ -87,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -148,7 +154,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -415,88 +428,88 @@
   <cellXfs count="31">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,7 +542,7 @@
     <tableColumn name="Method Inputs" id="5"/>
     <tableColumn name="Expected Result" id="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -871,7 +884,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
         <v>4</v>
@@ -884,7 +897,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="3"/>
@@ -893,7 +906,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
         <v>6</v>
@@ -914,7 +927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="16">
       <c r="A7" s="17"/>
       <c r="B7" s="18">
         <v>1</v>
@@ -929,7 +942,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25" customFormat="1" s="16">
       <c r="A8" s="17"/>
       <c r="B8" s="21">
         <v>2</v>
@@ -944,7 +957,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="31.5" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33" customFormat="1" s="16">
       <c r="A9" s="17"/>
       <c r="B9" s="18">
         <v>3</v>
@@ -959,7 +972,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="16">
       <c r="A10" s="17"/>
       <c r="B10" s="18">
         <v>4</v>
